--- a/grid_result.xlsx
+++ b/grid_result.xlsx
@@ -456,10 +456,10 @@
         <v>10000</v>
       </c>
       <c r="H2">
-        <v>-16.78601749780156</v>
+        <v>-6.644962904688292</v>
       </c>
       <c r="I2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -485,7 +485,7 @@
         <v>10000</v>
       </c>
       <c r="H3">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I3">
         <v>229</v>
@@ -514,10 +514,10 @@
         <v>10000</v>
       </c>
       <c r="H4">
-        <v>-30.51787092977662</v>
+        <v>-109.7974490446599</v>
       </c>
       <c r="I4">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -543,7 +543,7 @@
         <v>10000</v>
       </c>
       <c r="H5">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I5">
         <v>217</v>
@@ -572,10 +572,10 @@
         <v>10000</v>
       </c>
       <c r="H6">
-        <v>-75.94158932595425</v>
+        <v>-118.176146985031</v>
       </c>
       <c r="I6">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -601,7 +601,7 @@
         <v>10000</v>
       </c>
       <c r="H7">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I7">
         <v>193</v>
@@ -630,10 +630,10 @@
         <v>10000</v>
       </c>
       <c r="H8">
-        <v>-72.46142462157434</v>
+        <v>-181.0108223699683</v>
       </c>
       <c r="I8">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -659,7 +659,7 @@
         <v>10000</v>
       </c>
       <c r="H9">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I9">
         <v>85</v>
@@ -688,10 +688,10 @@
         <v>10000</v>
       </c>
       <c r="H10">
-        <v>-164.7873578793047</v>
+        <v>-164.7972692053146</v>
       </c>
       <c r="I10">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -717,10 +717,10 @@
         <v>10000</v>
       </c>
       <c r="H11">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -746,10 +746,10 @@
         <v>10000</v>
       </c>
       <c r="H12">
-        <v>-348798195.40402</v>
+        <v>-21215325.82729855</v>
       </c>
       <c r="I12">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -775,7 +775,7 @@
         <v>10000</v>
       </c>
       <c r="H13">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I13">
         <v>229</v>
@@ -804,10 +804,10 @@
         <v>10000</v>
       </c>
       <c r="H14">
-        <v>-46024142113.16222</v>
+        <v>-792484290777.231</v>
       </c>
       <c r="I14">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -833,7 +833,7 @@
         <v>10000</v>
       </c>
       <c r="H15">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I15">
         <v>217</v>
@@ -862,10 +862,10 @@
         <v>10000</v>
       </c>
       <c r="H16">
-        <v>-978811896963.8193</v>
+        <v>-14020082637162.08</v>
       </c>
       <c r="I16">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -891,7 +891,7 @@
         <v>10000</v>
       </c>
       <c r="H17">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I17">
         <v>193</v>
@@ -920,10 +920,10 @@
         <v>10000</v>
       </c>
       <c r="H18">
-        <v>-3455595152911648</v>
+        <v>-3549319056784693</v>
       </c>
       <c r="I18">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -949,7 +949,7 @@
         <v>10000</v>
       </c>
       <c r="H19">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I19">
         <v>85</v>
@@ -978,10 +978,10 @@
         <v>10000</v>
       </c>
       <c r="H20">
-        <v>-5.453503602880584E+16</v>
+        <v>-5.573579131012384E+16</v>
       </c>
       <c r="I20">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="H21">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1036,10 +1036,10 @@
         <v>10000</v>
       </c>
       <c r="H22">
-        <v>-1.665257584900657E+18</v>
+        <v>-2.390208259318308E+18</v>
       </c>
       <c r="I22">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1065,7 +1065,7 @@
         <v>10000</v>
       </c>
       <c r="H23">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I23">
         <v>229</v>
@@ -1094,10 +1094,10 @@
         <v>10000</v>
       </c>
       <c r="H24">
-        <v>-2.065755287647724E+21</v>
+        <v>-6.749841625986775E+20</v>
       </c>
       <c r="I24">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1123,7 +1123,7 @@
         <v>10000</v>
       </c>
       <c r="H25">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I25">
         <v>217</v>
@@ -1152,10 +1152,10 @@
         <v>10000</v>
       </c>
       <c r="H26">
-        <v>-7.110981709823377E+23</v>
+        <v>-4.411681406727957E+22</v>
       </c>
       <c r="I26">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1181,7 +1181,7 @@
         <v>10000</v>
       </c>
       <c r="H27">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I27">
         <v>193</v>
@@ -1210,7 +1210,7 @@
         <v>10000</v>
       </c>
       <c r="H28">
-        <v>-1.277544724892332E+27</v>
+        <v>-1.0208144849195E+27</v>
       </c>
       <c r="I28">
         <v>446</v>
@@ -1239,7 +1239,7 @@
         <v>10000</v>
       </c>
       <c r="H29">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I29">
         <v>85</v>
@@ -1268,10 +1268,10 @@
         <v>10000</v>
       </c>
       <c r="H30">
-        <v>-8.147950207764589E+28</v>
+        <v>-6.561250903102207E+28</v>
       </c>
       <c r="I30">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1297,10 +1297,10 @@
         <v>10000</v>
       </c>
       <c r="H31">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1326,10 +1326,10 @@
         <v>10000</v>
       </c>
       <c r="H32">
-        <v>-45.38613517324201</v>
+        <v>-24.52958946174845</v>
       </c>
       <c r="I32">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1355,7 +1355,7 @@
         <v>10000</v>
       </c>
       <c r="H33">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I33">
         <v>229</v>
@@ -1384,10 +1384,10 @@
         <v>10000</v>
       </c>
       <c r="H34">
-        <v>-95.11438791894874</v>
+        <v>-92.6806245500714</v>
       </c>
       <c r="I34">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1413,7 +1413,7 @@
         <v>10000</v>
       </c>
       <c r="H35">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I35">
         <v>217</v>
@@ -1442,10 +1442,10 @@
         <v>10000</v>
       </c>
       <c r="H36">
-        <v>-60.33177298634239</v>
+        <v>-40.73800400842125</v>
       </c>
       <c r="I36">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1471,7 +1471,7 @@
         <v>10000</v>
       </c>
       <c r="H37">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I37">
         <v>193</v>
@@ -1500,10 +1500,10 @@
         <v>10000</v>
       </c>
       <c r="H38">
-        <v>-15.51574983307499</v>
+        <v>-46.57731910250959</v>
       </c>
       <c r="I38">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1529,7 +1529,7 @@
         <v>10000</v>
       </c>
       <c r="H39">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I39">
         <v>85</v>
@@ -1558,10 +1558,10 @@
         <v>10000</v>
       </c>
       <c r="H40">
-        <v>-27.66455396269865</v>
+        <v>-128.5954314070204</v>
       </c>
       <c r="I40">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1587,10 +1587,10 @@
         <v>10000</v>
       </c>
       <c r="H41">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I41">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1616,10 +1616,10 @@
         <v>10000</v>
       </c>
       <c r="H42">
-        <v>-116067861.3345718</v>
+        <v>-112668705.2642163</v>
       </c>
       <c r="I42">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1645,7 +1645,7 @@
         <v>10000</v>
       </c>
       <c r="H43">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I43">
         <v>229</v>
@@ -1674,10 +1674,10 @@
         <v>10000</v>
       </c>
       <c r="H44">
-        <v>-343661559905.8967</v>
+        <v>-726298947723.2338</v>
       </c>
       <c r="I44">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1703,7 +1703,7 @@
         <v>10000</v>
       </c>
       <c r="H45">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I45">
         <v>217</v>
@@ -1732,10 +1732,10 @@
         <v>10000</v>
       </c>
       <c r="H46">
-        <v>-310573067739.3809</v>
+        <v>-127592208320.0078</v>
       </c>
       <c r="I46">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1761,7 +1761,7 @@
         <v>10000</v>
       </c>
       <c r="H47">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I47">
         <v>193</v>
@@ -1790,10 +1790,10 @@
         <v>10000</v>
       </c>
       <c r="H48">
-        <v>-610044387589043.1</v>
+        <v>-2.283041627638489E+16</v>
       </c>
       <c r="I48">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1819,7 +1819,7 @@
         <v>10000</v>
       </c>
       <c r="H49">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I49">
         <v>85</v>
@@ -1848,10 +1848,10 @@
         <v>10000</v>
       </c>
       <c r="H50">
-        <v>-3.625772387034771E+17</v>
+        <v>-4.21766616413405E+16</v>
       </c>
       <c r="I50">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1877,10 +1877,10 @@
         <v>10000</v>
       </c>
       <c r="H51">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I51">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1906,10 +1906,10 @@
         <v>10000</v>
       </c>
       <c r="H52">
-        <v>-4.285182768439453E+17</v>
+        <v>-2.188064171464361E+17</v>
       </c>
       <c r="I52">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1935,7 +1935,7 @@
         <v>10000</v>
       </c>
       <c r="H53">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I53">
         <v>229</v>
@@ -1964,10 +1964,10 @@
         <v>10000</v>
       </c>
       <c r="H54">
-        <v>-1.377956605393768E+22</v>
+        <v>-1.572704499922007E+22</v>
       </c>
       <c r="I54">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1993,7 +1993,7 @@
         <v>10000</v>
       </c>
       <c r="H55">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I55">
         <v>217</v>
@@ -2022,10 +2022,10 @@
         <v>10000</v>
       </c>
       <c r="H56">
-        <v>-4.42478367796371E+23</v>
+        <v>-2.362128899561389E+24</v>
       </c>
       <c r="I56">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2051,7 +2051,7 @@
         <v>10000</v>
       </c>
       <c r="H57">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I57">
         <v>193</v>
@@ -2080,10 +2080,10 @@
         <v>10000</v>
       </c>
       <c r="H58">
-        <v>-4.604326479093364E+28</v>
+        <v>-1.842213007007234E+28</v>
       </c>
       <c r="I58">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2109,7 +2109,7 @@
         <v>10000</v>
       </c>
       <c r="H59">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I59">
         <v>85</v>
@@ -2138,10 +2138,10 @@
         <v>10000</v>
       </c>
       <c r="H60">
-        <v>-9.259649056156119E+29</v>
+        <v>-3.3014773334751E+29</v>
       </c>
       <c r="I60">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2167,10 +2167,10 @@
         <v>10000</v>
       </c>
       <c r="H61">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I61">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2196,10 +2196,10 @@
         <v>10000</v>
       </c>
       <c r="H62">
-        <v>-30.07303499633917</v>
+        <v>-55.05971277169066</v>
       </c>
       <c r="I62">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2225,7 +2225,7 @@
         <v>10000</v>
       </c>
       <c r="H63">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I63">
         <v>229</v>
@@ -2254,10 +2254,10 @@
         <v>10000</v>
       </c>
       <c r="H64">
-        <v>-72.52184050233576</v>
+        <v>-110.4646561380156</v>
       </c>
       <c r="I64">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2283,7 +2283,7 @@
         <v>10000</v>
       </c>
       <c r="H65">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I65">
         <v>217</v>
@@ -2312,10 +2312,10 @@
         <v>10000</v>
       </c>
       <c r="H66">
-        <v>-90.65292942036723</v>
+        <v>-120.2588016684334</v>
       </c>
       <c r="I66">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2341,7 +2341,7 @@
         <v>10000</v>
       </c>
       <c r="H67">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I67">
         <v>193</v>
@@ -2370,10 +2370,10 @@
         <v>10000</v>
       </c>
       <c r="H68">
-        <v>-79.49512175904951</v>
+        <v>-171.8015789145684</v>
       </c>
       <c r="I68">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2399,7 +2399,7 @@
         <v>10000</v>
       </c>
       <c r="H69">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I69">
         <v>85</v>
@@ -2428,10 +2428,10 @@
         <v>10000</v>
       </c>
       <c r="H70">
-        <v>-117.2574921154219</v>
+        <v>-418.4838876809041</v>
       </c>
       <c r="I70">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2457,10 +2457,10 @@
         <v>10000</v>
       </c>
       <c r="H71">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I71">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2486,10 +2486,10 @@
         <v>10000</v>
       </c>
       <c r="H72">
-        <v>-48979011.65903413</v>
+        <v>-1512862906.508477</v>
       </c>
       <c r="I72">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2515,7 +2515,7 @@
         <v>10000</v>
       </c>
       <c r="H73">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I73">
         <v>229</v>
@@ -2544,10 +2544,10 @@
         <v>10000</v>
       </c>
       <c r="H74">
-        <v>-10549570887.5048</v>
+        <v>-99488800711.66541</v>
       </c>
       <c r="I74">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2573,7 +2573,7 @@
         <v>10000</v>
       </c>
       <c r="H75">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I75">
         <v>217</v>
@@ -2602,10 +2602,10 @@
         <v>10000</v>
       </c>
       <c r="H76">
-        <v>-849547019907.515</v>
+        <v>-14874396686820.68</v>
       </c>
       <c r="I76">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2631,7 +2631,7 @@
         <v>10000</v>
       </c>
       <c r="H77">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I77">
         <v>193</v>
@@ -2660,10 +2660,10 @@
         <v>10000</v>
       </c>
       <c r="H78">
-        <v>-1.212669548251603E+16</v>
+        <v>-117788929289819.6</v>
       </c>
       <c r="I78">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2689,7 +2689,7 @@
         <v>10000</v>
       </c>
       <c r="H79">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I79">
         <v>85</v>
@@ -2718,10 +2718,10 @@
         <v>10000</v>
       </c>
       <c r="H80">
-        <v>-4180745739750953</v>
+        <v>-1564128841194338</v>
       </c>
       <c r="I80">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2747,10 +2747,10 @@
         <v>10000</v>
       </c>
       <c r="H81">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I81">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2776,10 +2776,10 @@
         <v>10000</v>
       </c>
       <c r="H82">
-        <v>-2.523077271871635E+18</v>
+        <v>-1.179628596375785E+17</v>
       </c>
       <c r="I82">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2805,7 +2805,7 @@
         <v>10000</v>
       </c>
       <c r="H83">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I83">
         <v>229</v>
@@ -2834,10 +2834,10 @@
         <v>10000</v>
       </c>
       <c r="H84">
-        <v>-9.288568308199412E+20</v>
+        <v>-1.498438441960311E+22</v>
       </c>
       <c r="I84">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2863,7 +2863,7 @@
         <v>10000</v>
       </c>
       <c r="H85">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I85">
         <v>217</v>
@@ -2892,10 +2892,10 @@
         <v>10000</v>
       </c>
       <c r="H86">
-        <v>-9.304991155536133E+23</v>
+        <v>-1.244081860455294E+23</v>
       </c>
       <c r="I86">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2921,7 +2921,7 @@
         <v>10000</v>
       </c>
       <c r="H87">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I87">
         <v>193</v>
@@ -2950,10 +2950,10 @@
         <v>10000</v>
       </c>
       <c r="H88">
-        <v>-1.090323976161651E+28</v>
+        <v>-4.650666378912364E+27</v>
       </c>
       <c r="I88">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2979,7 +2979,7 @@
         <v>10000</v>
       </c>
       <c r="H89">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I89">
         <v>85</v>
@@ -3008,10 +3008,10 @@
         <v>10000</v>
       </c>
       <c r="H90">
-        <v>-6.408585773411354E+28</v>
+        <v>-2.056652388824084E+30</v>
       </c>
       <c r="I90">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3037,10 +3037,10 @@
         <v>10000</v>
       </c>
       <c r="H91">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I91">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3066,10 +3066,10 @@
         <v>10000</v>
       </c>
       <c r="H92">
-        <v>-104.0072751299856</v>
+        <v>-70.83497733697156</v>
       </c>
       <c r="I92">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3095,7 +3095,7 @@
         <v>10000</v>
       </c>
       <c r="H93">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I93">
         <v>229</v>
@@ -3124,10 +3124,10 @@
         <v>10000</v>
       </c>
       <c r="H94">
-        <v>-29.47019450414282</v>
+        <v>-69.3366302266023</v>
       </c>
       <c r="I94">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3153,7 +3153,7 @@
         <v>10000</v>
       </c>
       <c r="H95">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I95">
         <v>217</v>
@@ -3182,10 +3182,10 @@
         <v>10000</v>
       </c>
       <c r="H96">
-        <v>-76.35310895295825</v>
+        <v>-118.1748594989248</v>
       </c>
       <c r="I96">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3211,7 +3211,7 @@
         <v>10000</v>
       </c>
       <c r="H97">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I97">
         <v>193</v>
@@ -3240,10 +3240,10 @@
         <v>10000</v>
       </c>
       <c r="H98">
-        <v>-73.23598824638952</v>
+        <v>-161.368022516535</v>
       </c>
       <c r="I98">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3269,7 +3269,7 @@
         <v>10000</v>
       </c>
       <c r="H99">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I99">
         <v>85</v>
@@ -3298,10 +3298,10 @@
         <v>10000</v>
       </c>
       <c r="H100">
-        <v>-137.2734953781328</v>
+        <v>-172.1348496705875</v>
       </c>
       <c r="I100">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3327,10 +3327,10 @@
         <v>10000</v>
       </c>
       <c r="H101">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I101">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3356,10 +3356,10 @@
         <v>10000</v>
       </c>
       <c r="H102">
-        <v>-258668707.9280743</v>
+        <v>-10192755.57455719</v>
       </c>
       <c r="I102">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3385,7 +3385,7 @@
         <v>10000</v>
       </c>
       <c r="H103">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I103">
         <v>229</v>
@@ -3414,10 +3414,10 @@
         <v>10000</v>
       </c>
       <c r="H104">
-        <v>-248337886216.2428</v>
+        <v>-299289473355.6166</v>
       </c>
       <c r="I104">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3443,7 +3443,7 @@
         <v>10000</v>
       </c>
       <c r="H105">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I105">
         <v>217</v>
@@ -3472,10 +3472,10 @@
         <v>10000</v>
       </c>
       <c r="H106">
-        <v>-1603674383414.346</v>
+        <v>-7868671769344.091</v>
       </c>
       <c r="I106">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3501,7 +3501,7 @@
         <v>10000</v>
       </c>
       <c r="H107">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I107">
         <v>193</v>
@@ -3530,10 +3530,10 @@
         <v>10000</v>
       </c>
       <c r="H108">
-        <v>-230561665547349.4</v>
+        <v>-282823297158261.2</v>
       </c>
       <c r="I108">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3559,7 +3559,7 @@
         <v>10000</v>
       </c>
       <c r="H109">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I109">
         <v>85</v>
@@ -3588,10 +3588,10 @@
         <v>10000</v>
       </c>
       <c r="H110">
-        <v>-1.939979644291716E+17</v>
+        <v>-1976035247691923</v>
       </c>
       <c r="I110">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3617,10 +3617,10 @@
         <v>10000</v>
       </c>
       <c r="H111">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I111">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3646,10 +3646,10 @@
         <v>10000</v>
       </c>
       <c r="H112">
-        <v>-6.337349831524997E+17</v>
+        <v>-2.060964841084148E+18</v>
       </c>
       <c r="I112">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3675,7 +3675,7 @@
         <v>10000</v>
       </c>
       <c r="H113">
-        <v>0.8233207816936398</v>
+        <v>0.8179970350580333</v>
       </c>
       <c r="I113">
         <v>229</v>
@@ -3704,10 +3704,10 @@
         <v>10000</v>
       </c>
       <c r="H114">
-        <v>-9.338100574381416E+20</v>
+        <v>-2.376038567311157E+22</v>
       </c>
       <c r="I114">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3733,7 +3733,7 @@
         <v>10000</v>
       </c>
       <c r="H115">
-        <v>0.8501743623135282</v>
+        <v>0.8452484695512892</v>
       </c>
       <c r="I115">
         <v>217</v>
@@ -3762,10 +3762,10 @@
         <v>10000</v>
       </c>
       <c r="H116">
-        <v>-6.5567717283175E+22</v>
+        <v>-9.979079377746178E+23</v>
       </c>
       <c r="I116">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3791,7 +3791,7 @@
         <v>10000</v>
       </c>
       <c r="H117">
-        <v>0.8574132146894214</v>
+        <v>0.8526327641530289</v>
       </c>
       <c r="I117">
         <v>193</v>
@@ -3820,10 +3820,10 @@
         <v>10000</v>
       </c>
       <c r="H118">
-        <v>-1.464239347985955E+28</v>
+        <v>-2.025112110308999E+28</v>
       </c>
       <c r="I118">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3849,7 +3849,7 @@
         <v>10000</v>
       </c>
       <c r="H119">
-        <v>0.8646779615640432</v>
+        <v>0.8594061536886421</v>
       </c>
       <c r="I119">
         <v>85</v>
@@ -3878,7 +3878,7 @@
         <v>10000</v>
       </c>
       <c r="H120">
-        <v>-7.04995870559174E+29</v>
+        <v>-4.146761703691763E+29</v>
       </c>
       <c r="I120">
         <v>459</v>
@@ -3907,10 +3907,10 @@
         <v>10000</v>
       </c>
       <c r="H121">
-        <v>0.8666855255960634</v>
+        <v>0.8617671835023574</v>
       </c>
       <c r="I121">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3936,10 +3936,10 @@
         <v>10000</v>
       </c>
       <c r="H122">
-        <v>-112.0517255708561</v>
+        <v>-170.9673509461833</v>
       </c>
       <c r="I122">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3965,7 +3965,7 @@
         <v>10000</v>
       </c>
       <c r="H123">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I123">
         <v>205</v>
@@ -3994,10 +3994,10 @@
         <v>10000</v>
       </c>
       <c r="H124">
-        <v>-178.1656366473019</v>
+        <v>-118.1755048458399</v>
       </c>
       <c r="I124">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4023,10 +4023,10 @@
         <v>10000</v>
       </c>
       <c r="H125">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I125">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4052,10 +4052,10 @@
         <v>10000</v>
       </c>
       <c r="H126">
-        <v>-67.86521006521293</v>
+        <v>-173.8461000738617</v>
       </c>
       <c r="I126">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4081,10 +4081,10 @@
         <v>10000</v>
       </c>
       <c r="H127">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I127">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4110,10 +4110,10 @@
         <v>10000</v>
       </c>
       <c r="H128">
-        <v>-660.5726569907058</v>
+        <v>-763.5943054776887</v>
       </c>
       <c r="I128">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4139,10 +4139,10 @@
         <v>10000</v>
       </c>
       <c r="H129">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I129">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4168,10 +4168,10 @@
         <v>10000</v>
       </c>
       <c r="H130">
-        <v>-1026.948259075895</v>
+        <v>-4725.307499177555</v>
       </c>
       <c r="I130">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4197,7 +4197,7 @@
         <v>10000</v>
       </c>
       <c r="H131">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -4226,10 +4226,10 @@
         <v>10000</v>
       </c>
       <c r="H132">
-        <v>-4059453246.168701</v>
+        <v>-59056199553.56702</v>
       </c>
       <c r="I132">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4255,7 +4255,7 @@
         <v>10000</v>
       </c>
       <c r="H133">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I133">
         <v>205</v>
@@ -4284,10 +4284,10 @@
         <v>10000</v>
       </c>
       <c r="H134">
-        <v>-1508075638055.437</v>
+        <v>-21906399421293.72</v>
       </c>
       <c r="I134">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4313,10 +4313,10 @@
         <v>10000</v>
       </c>
       <c r="H135">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I135">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4342,10 +4342,10 @@
         <v>10000</v>
       </c>
       <c r="H136">
-        <v>-24103021094231.09</v>
+        <v>-312079423357391</v>
       </c>
       <c r="I136">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4371,10 +4371,10 @@
         <v>10000</v>
       </c>
       <c r="H137">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I137">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4400,7 +4400,7 @@
         <v>10000</v>
       </c>
       <c r="H138">
-        <v>-8.781225570429669E+16</v>
+        <v>-8.863282701993389E+16</v>
       </c>
       <c r="I138">
         <v>380</v>
@@ -4429,10 +4429,10 @@
         <v>10000</v>
       </c>
       <c r="H139">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I139">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4458,10 +4458,10 @@
         <v>10000</v>
       </c>
       <c r="H140">
-        <v>-1.393614898016319E+18</v>
+        <v>-1.394126555595893E+18</v>
       </c>
       <c r="I140">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4487,7 +4487,7 @@
         <v>10000</v>
       </c>
       <c r="H141">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -4516,10 +4516,10 @@
         <v>10000</v>
       </c>
       <c r="H142">
-        <v>-4.168359146333706E+19</v>
+        <v>-5.651384907586222E+19</v>
       </c>
       <c r="I142">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4545,7 +4545,7 @@
         <v>10000</v>
       </c>
       <c r="H143">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I143">
         <v>205</v>
@@ -4574,10 +4574,10 @@
         <v>10000</v>
       </c>
       <c r="H144">
-        <v>-5.9729822095007E+22</v>
+        <v>-1.719083219017966E+22</v>
       </c>
       <c r="I144">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4603,10 +4603,10 @@
         <v>10000</v>
       </c>
       <c r="H145">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I145">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4632,10 +4632,10 @@
         <v>10000</v>
       </c>
       <c r="H146">
-        <v>-2.960093461744725E+25</v>
+        <v>-1.320434545304256E+24</v>
       </c>
       <c r="I146">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4661,10 +4661,10 @@
         <v>10000</v>
       </c>
       <c r="H147">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I147">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4690,10 +4690,10 @@
         <v>10000</v>
       </c>
       <c r="H148">
-        <v>-3.187612010761444E+28</v>
+        <v>-2.556605451553369E+28</v>
       </c>
       <c r="I148">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4719,10 +4719,10 @@
         <v>10000</v>
       </c>
       <c r="H149">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I149">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4748,10 +4748,10 @@
         <v>10000</v>
       </c>
       <c r="H150">
-        <v>-2.28325012672978E+30</v>
+        <v>-1.636441508381917E+30</v>
       </c>
       <c r="I150">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4777,7 +4777,7 @@
         <v>10000</v>
       </c>
       <c r="H151">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -4806,10 +4806,10 @@
         <v>10000</v>
       </c>
       <c r="H152">
-        <v>-56.29911847771723</v>
+        <v>-41.80771992022748</v>
       </c>
       <c r="I152">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4835,7 +4835,7 @@
         <v>10000</v>
       </c>
       <c r="H153">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I153">
         <v>205</v>
@@ -4864,10 +4864,10 @@
         <v>10000</v>
       </c>
       <c r="H154">
-        <v>-39.02720245286709</v>
+        <v>-177.0141003862662</v>
       </c>
       <c r="I154">
-        <v>248</v>
+        <v>282</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4893,10 +4893,10 @@
         <v>10000</v>
       </c>
       <c r="H155">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I155">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4922,10 +4922,10 @@
         <v>10000</v>
       </c>
       <c r="H156">
-        <v>-156.4289882906492</v>
+        <v>-249.5023939366734</v>
       </c>
       <c r="I156">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4951,10 +4951,10 @@
         <v>10000</v>
       </c>
       <c r="H157">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I157">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4980,7 +4980,7 @@
         <v>10000</v>
       </c>
       <c r="H158">
-        <v>-1173.833450928076</v>
+        <v>-2913.743688053704</v>
       </c>
       <c r="I158">
         <v>296</v>
@@ -5009,10 +5009,10 @@
         <v>10000</v>
       </c>
       <c r="H159">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I159">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5038,10 +5038,10 @@
         <v>10000</v>
       </c>
       <c r="H160">
-        <v>-2491.232743491658</v>
+        <v>-6561.506058697453</v>
       </c>
       <c r="I160">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5067,7 +5067,7 @@
         <v>10000</v>
       </c>
       <c r="H161">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         <v>10000</v>
       </c>
       <c r="H162">
-        <v>-3188728106.930362</v>
+        <v>-3498538149.154879</v>
       </c>
       <c r="I162">
         <v>329</v>
@@ -5125,7 +5125,7 @@
         <v>10000</v>
       </c>
       <c r="H163">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I163">
         <v>205</v>
@@ -5154,10 +5154,10 @@
         <v>10000</v>
       </c>
       <c r="H164">
-        <v>-5873162933104.955</v>
+        <v>-778948211024.1003</v>
       </c>
       <c r="I164">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5183,10 +5183,10 @@
         <v>10000</v>
       </c>
       <c r="H165">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I165">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5212,10 +5212,10 @@
         <v>10000</v>
       </c>
       <c r="H166">
-        <v>-7648162554541.448</v>
+        <v>-8063201396411.175</v>
       </c>
       <c r="I166">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5241,10 +5241,10 @@
         <v>10000</v>
       </c>
       <c r="H167">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I167">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5270,10 +5270,10 @@
         <v>10000</v>
       </c>
       <c r="H168">
-        <v>-8115805271078320</v>
+        <v>-5.700001735243158E+17</v>
       </c>
       <c r="I168">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5299,10 +5299,10 @@
         <v>10000</v>
       </c>
       <c r="H169">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I169">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5328,10 +5328,10 @@
         <v>10000</v>
       </c>
       <c r="H170">
-        <v>-9.045844872650757E+18</v>
+        <v>-9.604242459991302E+17</v>
       </c>
       <c r="I170">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5357,7 +5357,7 @@
         <v>10000</v>
       </c>
       <c r="H171">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -5386,10 +5386,10 @@
         <v>10000</v>
       </c>
       <c r="H172">
-        <v>-1.028639846103094E+19</v>
+        <v>-5.54885540223732E+19</v>
       </c>
       <c r="I172">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5415,7 +5415,7 @@
         <v>10000</v>
       </c>
       <c r="H173">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I173">
         <v>205</v>
@@ -5444,10 +5444,10 @@
         <v>10000</v>
       </c>
       <c r="H174">
-        <v>-3.999148725792347E+23</v>
+        <v>-3.319212720851516E+23</v>
       </c>
       <c r="I174">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5473,10 +5473,10 @@
         <v>10000</v>
       </c>
       <c r="H175">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I175">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5502,10 +5502,10 @@
         <v>10000</v>
       </c>
       <c r="H176">
-        <v>-6.116103945217775E+24</v>
+        <v>-1.921839547269646E+24</v>
       </c>
       <c r="I176">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5531,10 +5531,10 @@
         <v>10000</v>
       </c>
       <c r="H177">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I177">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5560,10 +5560,10 @@
         <v>10000</v>
       </c>
       <c r="H178">
-        <v>-1.151084488516926E+30</v>
+        <v>-4.606293040853193E+29</v>
       </c>
       <c r="I178">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5589,10 +5589,10 @@
         <v>10000</v>
       </c>
       <c r="H179">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I179">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5618,7 +5618,7 @@
         <v>10000</v>
       </c>
       <c r="H180">
-        <v>-2.78058491784242E+30</v>
+        <v>-8.224360675796811E+30</v>
       </c>
       <c r="I180">
         <v>467</v>
@@ -5647,7 +5647,7 @@
         <v>10000</v>
       </c>
       <c r="H181">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -5676,10 +5676,10 @@
         <v>10000</v>
       </c>
       <c r="H182">
-        <v>-50.1441885449499</v>
+        <v>-99.95189501877928</v>
       </c>
       <c r="I182">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5705,7 +5705,7 @@
         <v>10000</v>
       </c>
       <c r="H183">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I183">
         <v>205</v>
@@ -5734,10 +5734,10 @@
         <v>10000</v>
       </c>
       <c r="H184">
-        <v>-178.1659096259075</v>
+        <v>-122.7819385675979</v>
       </c>
       <c r="I184">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5763,10 +5763,10 @@
         <v>10000</v>
       </c>
       <c r="H185">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I185">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5792,10 +5792,10 @@
         <v>10000</v>
       </c>
       <c r="H186">
-        <v>-74.08951885255759</v>
+        <v>-171.445263479589</v>
       </c>
       <c r="I186">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5821,10 +5821,10 @@
         <v>10000</v>
       </c>
       <c r="H187">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I187">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5850,10 +5850,10 @@
         <v>10000</v>
       </c>
       <c r="H188">
-        <v>-690.6039064661429</v>
+        <v>-778.4375113773265</v>
       </c>
       <c r="I188">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5879,10 +5879,10 @@
         <v>10000</v>
       </c>
       <c r="H189">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I189">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5908,10 +5908,10 @@
         <v>10000</v>
       </c>
       <c r="H190">
-        <v>-1293.768460472621</v>
+        <v>-831.276383901507</v>
       </c>
       <c r="I190">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5937,7 +5937,7 @@
         <v>10000</v>
       </c>
       <c r="H191">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -5966,10 +5966,10 @@
         <v>10000</v>
       </c>
       <c r="H192">
-        <v>-1148908134.177839</v>
+        <v>-1909451215.633144</v>
       </c>
       <c r="I192">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5995,7 +5995,7 @@
         <v>10000</v>
       </c>
       <c r="H193">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I193">
         <v>205</v>
@@ -6024,10 +6024,10 @@
         <v>10000</v>
       </c>
       <c r="H194">
-        <v>-4222207554183.3</v>
+        <v>-10482765276280.46</v>
       </c>
       <c r="I194">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6053,10 +6053,10 @@
         <v>10000</v>
       </c>
       <c r="H195">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I195">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6082,10 +6082,10 @@
         <v>10000</v>
       </c>
       <c r="H196">
-        <v>-20591214384872.07</v>
+        <v>-371885221459812.4</v>
       </c>
       <c r="I196">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6111,10 +6111,10 @@
         <v>10000</v>
       </c>
       <c r="H197">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I197">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6140,10 +6140,10 @@
         <v>10000</v>
       </c>
       <c r="H198">
-        <v>-3.0239738825251E+17</v>
+        <v>-2684419016066473</v>
       </c>
       <c r="I198">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6169,10 +6169,10 @@
         <v>10000</v>
       </c>
       <c r="H199">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I199">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6198,10 +6198,10 @@
         <v>10000</v>
       </c>
       <c r="H200">
-        <v>-7.089322468686095E+16</v>
+        <v>-3.780748278187729E+16</v>
       </c>
       <c r="I200">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6227,7 +6227,7 @@
         <v>10000</v>
       </c>
       <c r="H201">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         <v>10000</v>
       </c>
       <c r="H202">
-        <v>-3.865171895044324E+19</v>
+        <v>-5.268522860844986E+19</v>
       </c>
       <c r="I202">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6285,7 +6285,7 @@
         <v>10000</v>
       </c>
       <c r="H203">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I203">
         <v>205</v>
@@ -6314,10 +6314,10 @@
         <v>10000</v>
       </c>
       <c r="H204">
-        <v>-3.783124945973918E+23</v>
+        <v>-3.309494112943712E+23</v>
       </c>
       <c r="I204">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6343,10 +6343,10 @@
         <v>10000</v>
       </c>
       <c r="H205">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I205">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6372,10 +6372,10 @@
         <v>10000</v>
       </c>
       <c r="H206">
-        <v>-3.563400374521701E+25</v>
+        <v>-4.064959068696703E+24</v>
       </c>
       <c r="I206">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6401,10 +6401,10 @@
         <v>10000</v>
       </c>
       <c r="H207">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I207">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6430,10 +6430,10 @@
         <v>10000</v>
       </c>
       <c r="H208">
-        <v>-2.048399517007809E+29</v>
+        <v>-1.173316121906632E+29</v>
       </c>
       <c r="I208">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6459,10 +6459,10 @@
         <v>10000</v>
       </c>
       <c r="H209">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I209">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6488,10 +6488,10 @@
         <v>10000</v>
       </c>
       <c r="H210">
-        <v>-1.695894297544982E+30</v>
+        <v>-4.216561784176603E+31</v>
       </c>
       <c r="I210">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6517,7 +6517,7 @@
         <v>10000</v>
       </c>
       <c r="H211">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -6546,10 +6546,10 @@
         <v>10000</v>
       </c>
       <c r="H212">
-        <v>-116.0753074354318</v>
+        <v>-73.7535837450371</v>
       </c>
       <c r="I212">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6575,7 +6575,7 @@
         <v>10000</v>
       </c>
       <c r="H213">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I213">
         <v>205</v>
@@ -6604,10 +6604,10 @@
         <v>10000</v>
       </c>
       <c r="H214">
-        <v>-178.796857779696</v>
+        <v>-115.5517946096698</v>
       </c>
       <c r="I214">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6633,10 +6633,10 @@
         <v>10000</v>
       </c>
       <c r="H215">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I215">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6662,10 +6662,10 @@
         <v>10000</v>
       </c>
       <c r="H216">
-        <v>-71.9244309647376</v>
+        <v>-173.8544414509707</v>
       </c>
       <c r="I216">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6691,10 +6691,10 @@
         <v>10000</v>
       </c>
       <c r="H217">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I217">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6720,10 +6720,10 @@
         <v>10000</v>
       </c>
       <c r="H218">
-        <v>-728.8024982180639</v>
+        <v>-762.415471106711</v>
       </c>
       <c r="I218">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6749,10 +6749,10 @@
         <v>10000</v>
       </c>
       <c r="H219">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I219">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6778,10 +6778,10 @@
         <v>10000</v>
       </c>
       <c r="H220">
-        <v>-892.2100514072832</v>
+        <v>-4279.995734075879</v>
       </c>
       <c r="I220">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -6807,7 +6807,7 @@
         <v>10000</v>
       </c>
       <c r="H221">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -6836,7 +6836,7 @@
         <v>10000</v>
       </c>
       <c r="H222">
-        <v>-276793910.9109436</v>
+        <v>-250785204.1485848</v>
       </c>
       <c r="I222">
         <v>324</v>
@@ -6865,7 +6865,7 @@
         <v>10000</v>
       </c>
       <c r="H223">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I223">
         <v>205</v>
@@ -6894,10 +6894,10 @@
         <v>10000</v>
       </c>
       <c r="H224">
-        <v>-16655599632467.12</v>
+        <v>-7039397247080.692</v>
       </c>
       <c r="I224">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6923,10 +6923,10 @@
         <v>10000</v>
       </c>
       <c r="H225">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I225">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6952,10 +6952,10 @@
         <v>10000</v>
       </c>
       <c r="H226">
-        <v>-79395367219243.17</v>
+        <v>-7783560656914.042</v>
       </c>
       <c r="I226">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6981,10 +6981,10 @@
         <v>10000</v>
       </c>
       <c r="H227">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I227">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7010,10 +7010,10 @@
         <v>10000</v>
       </c>
       <c r="H228">
-        <v>-373346053262295.6</v>
+        <v>-3797486453979354</v>
       </c>
       <c r="I228">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7039,10 +7039,10 @@
         <v>10000</v>
       </c>
       <c r="H229">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I229">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7068,10 +7068,10 @@
         <v>10000</v>
       </c>
       <c r="H230">
-        <v>-1.026233937389226E+19</v>
+        <v>-9.079217305606686E+16</v>
       </c>
       <c r="I230">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7097,7 +7097,7 @@
         <v>10000</v>
       </c>
       <c r="H231">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -7126,7 +7126,7 @@
         <v>10000</v>
       </c>
       <c r="H232">
-        <v>-1.988544711763818E+19</v>
+        <v>-2.241056926837195E+19</v>
       </c>
       <c r="I232">
         <v>400</v>
@@ -7155,7 +7155,7 @@
         <v>10000</v>
       </c>
       <c r="H233">
-        <v>0.8504782733527</v>
+        <v>0.8460445233967062</v>
       </c>
       <c r="I233">
         <v>205</v>
@@ -7184,7 +7184,7 @@
         <v>10000</v>
       </c>
       <c r="H234">
-        <v>-5.428273018685679E+23</v>
+        <v>-5.297970213980731E+23</v>
       </c>
       <c r="I234">
         <v>427</v>
@@ -7213,10 +7213,10 @@
         <v>10000</v>
       </c>
       <c r="H235">
-        <v>0.8614916408229268</v>
+        <v>0.8562398590108898</v>
       </c>
       <c r="I235">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7242,10 +7242,10 @@
         <v>10000</v>
       </c>
       <c r="H236">
-        <v>-3.057909656749713E+25</v>
+        <v>-2.444526458403819E+25</v>
       </c>
       <c r="I236">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7271,10 +7271,10 @@
         <v>10000</v>
       </c>
       <c r="H237">
-        <v>0.8629174068567066</v>
+        <v>0.8579958632329383</v>
       </c>
       <c r="I237">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7300,10 +7300,10 @@
         <v>10000</v>
       </c>
       <c r="H238">
-        <v>-4.249973614345547E+28</v>
+        <v>-5.264101746376698E+28</v>
       </c>
       <c r="I238">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7329,10 +7329,10 @@
         <v>10000</v>
       </c>
       <c r="H239">
-        <v>0.8664593406713618</v>
+        <v>0.8612076498872872</v>
       </c>
       <c r="I239">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7358,10 +7358,10 @@
         <v>10000</v>
       </c>
       <c r="H240">
-        <v>-1.74897349173375E+31</v>
+        <v>-1.136089933814112E+31</v>
       </c>
       <c r="I240">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7387,7 +7387,7 @@
         <v>10000</v>
       </c>
       <c r="H241">
-        <v>0.8670049144856378</v>
+        <v>0.8628138394487076</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -7416,10 +7416,10 @@
         <v>10000</v>
       </c>
       <c r="H242">
-        <v>-133.9676007855999</v>
+        <v>-10.08295743475037</v>
       </c>
       <c r="I242">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7445,7 +7445,7 @@
         <v>10000</v>
       </c>
       <c r="H243">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I243">
         <v>181</v>
@@ -7474,10 +7474,10 @@
         <v>10000</v>
       </c>
       <c r="H244">
-        <v>-67.86521006521293</v>
+        <v>-173.8461000738617</v>
       </c>
       <c r="I244">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7503,7 +7503,7 @@
         <v>10000</v>
       </c>
       <c r="H245">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I245">
         <v>145</v>
@@ -7532,10 +7532,10 @@
         <v>10000</v>
       </c>
       <c r="H246">
-        <v>-1172.856621702352</v>
+        <v>-122.1443725660047</v>
       </c>
       <c r="I246">
-        <v>295</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7561,7 +7561,7 @@
         <v>10000</v>
       </c>
       <c r="H247">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I247">
         <v>109</v>
@@ -7590,10 +7590,10 @@
         <v>10000</v>
       </c>
       <c r="H248">
-        <v>-1026.948259075895</v>
+        <v>-4725.307499177555</v>
       </c>
       <c r="I248">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7619,7 +7619,7 @@
         <v>10000</v>
       </c>
       <c r="H249">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I249">
         <v>25</v>
@@ -7648,10 +7648,10 @@
         <v>10000</v>
       </c>
       <c r="H250">
-        <v>-11459.58783449381</v>
+        <v>-16753.8400696701</v>
       </c>
       <c r="I250">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7677,10 +7677,10 @@
         <v>10000</v>
       </c>
       <c r="H251">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I251">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7706,10 +7706,10 @@
         <v>10000</v>
       </c>
       <c r="H252">
-        <v>-18808708132.80804</v>
+        <v>-2012856404.099374</v>
       </c>
       <c r="I252">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7735,7 +7735,7 @@
         <v>10000</v>
       </c>
       <c r="H253">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I253">
         <v>181</v>
@@ -7764,10 +7764,10 @@
         <v>10000</v>
       </c>
       <c r="H254">
-        <v>-5538516554834.333</v>
+        <v>-87625760148788.8</v>
       </c>
       <c r="I254">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7793,7 +7793,7 @@
         <v>10000</v>
       </c>
       <c r="H255">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I255">
         <v>145</v>
@@ -7822,10 +7822,10 @@
         <v>10000</v>
       </c>
       <c r="H256">
-        <v>-116340353051169.8</v>
+        <v>-1422667397534242</v>
       </c>
       <c r="I256">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7851,7 +7851,7 @@
         <v>10000</v>
       </c>
       <c r="H257">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I257">
         <v>109</v>
@@ -7880,10 +7880,10 @@
         <v>10000</v>
       </c>
       <c r="H258">
-        <v>-3.489807118229496E+17</v>
+        <v>-3.484957434447439E+17</v>
       </c>
       <c r="I258">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7909,7 +7909,7 @@
         <v>10000</v>
       </c>
       <c r="H259">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I259">
         <v>25</v>
@@ -7938,10 +7938,10 @@
         <v>10000</v>
       </c>
       <c r="H260">
-        <v>-5.47125389023275E+18</v>
+        <v>-5.584368092698257E+18</v>
       </c>
       <c r="I260">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7967,10 +7967,10 @@
         <v>10000</v>
       </c>
       <c r="H261">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I261">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7996,10 +7996,10 @@
         <v>10000</v>
       </c>
       <c r="H262">
-        <v>-1.790942822637932E+20</v>
+        <v>-2.257072381046197E+20</v>
       </c>
       <c r="I262">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8025,7 +8025,7 @@
         <v>10000</v>
       </c>
       <c r="H263">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I263">
         <v>181</v>
@@ -8054,10 +8054,10 @@
         <v>10000</v>
       </c>
       <c r="H264">
-        <v>-1.133247690281395E+24</v>
+        <v>-6.77564197101547E+22</v>
       </c>
       <c r="I264">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8083,7 +8083,7 @@
         <v>10000</v>
       </c>
       <c r="H265">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I265">
         <v>145</v>
@@ -8112,10 +8112,10 @@
         <v>10000</v>
       </c>
       <c r="H266">
-        <v>-7.144834971678999E+25</v>
+        <v>-6.429168705703563E+24</v>
       </c>
       <c r="I266">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -8141,7 +8141,7 @@
         <v>10000</v>
       </c>
       <c r="H267">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I267">
         <v>109</v>
@@ -8170,10 +8170,10 @@
         <v>10000</v>
       </c>
       <c r="H268">
-        <v>-1.2750691003898E+29</v>
+        <v>-1.022519063482609E+29</v>
       </c>
       <c r="I268">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -8199,7 +8199,7 @@
         <v>10000</v>
       </c>
       <c r="H269">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I269">
         <v>25</v>
@@ -8228,10 +8228,10 @@
         <v>10000</v>
       </c>
       <c r="H270">
-        <v>-9.086595826134919E+30</v>
+        <v>-6.560819943235527E+30</v>
       </c>
       <c r="I270">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -8257,10 +8257,10 @@
         <v>10000</v>
       </c>
       <c r="H271">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I271">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -8286,10 +8286,10 @@
         <v>10000</v>
       </c>
       <c r="H272">
-        <v>-153.8990124528456</v>
+        <v>-120.0576963944764</v>
       </c>
       <c r="I272">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -8315,7 +8315,7 @@
         <v>10000</v>
       </c>
       <c r="H273">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I273">
         <v>181</v>
@@ -8344,10 +8344,10 @@
         <v>10000</v>
       </c>
       <c r="H274">
-        <v>-64.7502082298947</v>
+        <v>-61.53157847061699</v>
       </c>
       <c r="I274">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -8373,7 +8373,7 @@
         <v>10000</v>
       </c>
       <c r="H275">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I275">
         <v>145</v>
@@ -8402,10 +8402,10 @@
         <v>10000</v>
       </c>
       <c r="H276">
-        <v>-913.0872517279768</v>
+        <v>-194.7493150808493</v>
       </c>
       <c r="I276">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -8431,7 +8431,7 @@
         <v>10000</v>
       </c>
       <c r="H277">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I277">
         <v>109</v>
@@ -8460,10 +8460,10 @@
         <v>10000</v>
       </c>
       <c r="H278">
-        <v>-14645.0250506403</v>
+        <v>-1512.758616670438</v>
       </c>
       <c r="I278">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -8489,7 +8489,7 @@
         <v>10000</v>
       </c>
       <c r="H279">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I279">
         <v>25</v>
@@ -8518,10 +8518,10 @@
         <v>10000</v>
       </c>
       <c r="H280">
-        <v>-4207.155090696049</v>
+        <v>-25403.29583168592</v>
       </c>
       <c r="I280">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -8547,10 +8547,10 @@
         <v>10000</v>
       </c>
       <c r="H281">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I281">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -8576,10 +8576,10 @@
         <v>10000</v>
       </c>
       <c r="H282">
-        <v>-60967987934.33347</v>
+        <v>-25002297549.81394</v>
       </c>
       <c r="I282">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -8605,7 +8605,7 @@
         <v>10000</v>
       </c>
       <c r="H283">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I283">
         <v>181</v>
@@ -8634,10 +8634,10 @@
         <v>10000</v>
       </c>
       <c r="H284">
-        <v>-24262534588118.14</v>
+        <v>-36140914567668.45</v>
       </c>
       <c r="I284">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -8663,7 +8663,7 @@
         <v>10000</v>
       </c>
       <c r="H285">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I285">
         <v>145</v>
@@ -8692,10 +8692,10 @@
         <v>10000</v>
       </c>
       <c r="H286">
-        <v>-31353857871945.57</v>
+        <v>-27594200734076.11</v>
       </c>
       <c r="I286">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -8721,7 +8721,7 @@
         <v>10000</v>
       </c>
       <c r="H287">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I287">
         <v>109</v>
@@ -8750,10 +8750,10 @@
         <v>10000</v>
       </c>
       <c r="H288">
-        <v>-1.032315373326412E+16</v>
+        <v>-2.30305435946272E+18</v>
       </c>
       <c r="I288">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -8779,7 +8779,7 @@
         <v>10000</v>
       </c>
       <c r="H289">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I289">
         <v>25</v>
@@ -8808,10 +8808,10 @@
         <v>10000</v>
       </c>
       <c r="H290">
-        <v>-4.756277534766679E+19</v>
+        <v>-3.755893599505648E+18</v>
       </c>
       <c r="I290">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -8837,10 +8837,10 @@
         <v>10000</v>
       </c>
       <c r="H291">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I291">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -8866,10 +8866,10 @@
         <v>10000</v>
       </c>
       <c r="H292">
-        <v>-1.630183656642557E+19</v>
+        <v>-3.029152863429777E+19</v>
       </c>
       <c r="I292">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -8895,7 +8895,7 @@
         <v>10000</v>
       </c>
       <c r="H293">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I293">
         <v>181</v>
@@ -8924,7 +8924,7 @@
         <v>10000</v>
       </c>
       <c r="H294">
-        <v>-1.833316513284907E+24</v>
+        <v>-1.333753085761395E+24</v>
       </c>
       <c r="I294">
         <v>431</v>
@@ -8953,7 +8953,7 @@
         <v>10000</v>
       </c>
       <c r="H295">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I295">
         <v>145</v>
@@ -8982,10 +8982,10 @@
         <v>10000</v>
       </c>
       <c r="H296">
-        <v>-4.839846385209854E+25</v>
+        <v>-7.5055665040556E+25</v>
       </c>
       <c r="I296">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -9011,7 +9011,7 @@
         <v>10000</v>
       </c>
       <c r="H297">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I297">
         <v>109</v>
@@ -9040,10 +9040,10 @@
         <v>10000</v>
       </c>
       <c r="H298">
-        <v>-1.080424879340419E+30</v>
+        <v>-2.079371141804471E+30</v>
       </c>
       <c r="I298">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -9069,7 +9069,7 @@
         <v>10000</v>
       </c>
       <c r="H299">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I299">
         <v>25</v>
@@ -9098,10 +9098,10 @@
         <v>10000</v>
       </c>
       <c r="H300">
-        <v>-6.191331493819033E+31</v>
+        <v>-1.408326283462236E+31</v>
       </c>
       <c r="I300">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -9127,10 +9127,10 @@
         <v>10000</v>
       </c>
       <c r="H301">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I301">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -9156,10 +9156,10 @@
         <v>10000</v>
       </c>
       <c r="H302">
-        <v>-22.79808170504985</v>
+        <v>-68.4160923999905</v>
       </c>
       <c r="I302">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -9185,7 +9185,7 @@
         <v>10000</v>
       </c>
       <c r="H303">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I303">
         <v>181</v>
@@ -9214,10 +9214,10 @@
         <v>10000</v>
       </c>
       <c r="H304">
-        <v>-71.9244309647376</v>
+        <v>-173.8544414509707</v>
       </c>
       <c r="I304">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -9243,7 +9243,7 @@
         <v>10000</v>
       </c>
       <c r="H305">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I305">
         <v>145</v>
@@ -9272,10 +9272,10 @@
         <v>10000</v>
       </c>
       <c r="H306">
-        <v>-1033.578330488421</v>
+        <v>-87.8356582722548</v>
       </c>
       <c r="I306">
-        <v>294</v>
+        <v>254</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -9301,7 +9301,7 @@
         <v>10000</v>
       </c>
       <c r="H307">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I307">
         <v>109</v>
@@ -9330,10 +9330,10 @@
         <v>10000</v>
       </c>
       <c r="H308">
-        <v>-892.2100514072832</v>
+        <v>-4279.995734075879</v>
       </c>
       <c r="I308">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -9359,7 +9359,7 @@
         <v>10000</v>
       </c>
       <c r="H309">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I309">
         <v>25</v>
@@ -9388,10 +9388,10 @@
         <v>10000</v>
       </c>
       <c r="H310">
-        <v>-6820.128193129576</v>
+        <v>-27255.98443168736</v>
       </c>
       <c r="I310">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -9417,10 +9417,10 @@
         <v>10000</v>
       </c>
       <c r="H311">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I311">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -9446,10 +9446,10 @@
         <v>10000</v>
       </c>
       <c r="H312">
-        <v>-2517491345.657151</v>
+        <v>-4716525701.854483</v>
       </c>
       <c r="I312">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -9475,7 +9475,7 @@
         <v>10000</v>
       </c>
       <c r="H313">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I313">
         <v>181</v>
@@ -9504,10 +9504,10 @@
         <v>10000</v>
       </c>
       <c r="H314">
-        <v>-12917294739882.86</v>
+        <v>-51462637088498.55</v>
       </c>
       <c r="I314">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -9533,7 +9533,7 @@
         <v>10000</v>
       </c>
       <c r="H315">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I315">
         <v>145</v>
@@ -9562,10 +9562,10 @@
         <v>10000</v>
       </c>
       <c r="H316">
-        <v>-82762056552933.33</v>
+        <v>-1487553762717244</v>
       </c>
       <c r="I316">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -9591,7 +9591,7 @@
         <v>10000</v>
       </c>
       <c r="H317">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I317">
         <v>109</v>
@@ -9620,10 +9620,10 @@
         <v>10000</v>
       </c>
       <c r="H318">
-        <v>-1.208487110732608E+18</v>
+        <v>-1.036026993051017E+16</v>
       </c>
       <c r="I318">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -9649,7 +9649,7 @@
         <v>10000</v>
       </c>
       <c r="H319">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I319">
         <v>25</v>
@@ -9678,10 +9678,10 @@
         <v>10000</v>
       </c>
       <c r="H320">
-        <v>-5.978493855815258E+17</v>
+        <v>-2.210515985736002E+17</v>
       </c>
       <c r="I320">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -9707,10 +9707,10 @@
         <v>10000</v>
       </c>
       <c r="H321">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I321">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -9736,10 +9736,10 @@
         <v>10000</v>
       </c>
       <c r="H322">
-        <v>-5.67720481068458E+18</v>
+        <v>-1.345114208158069E+20</v>
       </c>
       <c r="I322">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -9765,7 +9765,7 @@
         <v>10000</v>
       </c>
       <c r="H323">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I323">
         <v>181</v>
@@ -9794,10 +9794,10 @@
         <v>10000</v>
       </c>
       <c r="H324">
-        <v>-1.078498954862682E+23</v>
+        <v>-1.332802768509571E+24</v>
       </c>
       <c r="I324">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -9823,7 +9823,7 @@
         <v>10000</v>
       </c>
       <c r="H325">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I325">
         <v>145</v>
@@ -9852,10 +9852,10 @@
         <v>10000</v>
       </c>
       <c r="H326">
-        <v>-3.57392508641373E+26</v>
+        <v>-1.215513341994504E+25</v>
       </c>
       <c r="I326">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -9881,7 +9881,7 @@
         <v>10000</v>
       </c>
       <c r="H327">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I327">
         <v>109</v>
@@ -9910,10 +9910,10 @@
         <v>10000</v>
       </c>
       <c r="H328">
-        <v>-8.028465117648471E+29</v>
+        <v>-4.888998033118093E+29</v>
       </c>
       <c r="I328">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -9939,7 +9939,7 @@
         <v>10000</v>
       </c>
       <c r="H329">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I329">
         <v>25</v>
@@ -9968,10 +9968,10 @@
         <v>10000</v>
       </c>
       <c r="H330">
-        <v>-5.327073302272872E+30</v>
+        <v>-2.085686054122888E+32</v>
       </c>
       <c r="I330">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -9997,10 +9997,10 @@
         <v>10000</v>
       </c>
       <c r="H331">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I331">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -10026,10 +10026,10 @@
         <v>10000</v>
       </c>
       <c r="H332">
-        <v>-101.5690888366021</v>
+        <v>-171.0508390133076</v>
       </c>
       <c r="I332">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -10055,7 +10055,7 @@
         <v>10000</v>
       </c>
       <c r="H333">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I333">
         <v>181</v>
@@ -10084,10 +10084,10 @@
         <v>10000</v>
       </c>
       <c r="H334">
-        <v>-66.59348070149753</v>
+        <v>-174.5574555573556</v>
       </c>
       <c r="I334">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -10113,7 +10113,7 @@
         <v>10000</v>
       </c>
       <c r="H335">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I335">
         <v>145</v>
@@ -10142,10 +10142,10 @@
         <v>10000</v>
       </c>
       <c r="H336">
-        <v>-1007.022113869659</v>
+        <v>-151.3992514735018</v>
       </c>
       <c r="I336">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -10171,7 +10171,7 @@
         <v>10000</v>
       </c>
       <c r="H337">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I337">
         <v>109</v>
@@ -10200,10 +10200,10 @@
         <v>10000</v>
       </c>
       <c r="H338">
-        <v>-890.5794551302903</v>
+        <v>-4244.553116011042</v>
       </c>
       <c r="I338">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -10229,7 +10229,7 @@
         <v>10000</v>
       </c>
       <c r="H339">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I339">
         <v>25</v>
@@ -10258,10 +10258,10 @@
         <v>10000</v>
       </c>
       <c r="H340">
-        <v>-11607.0070256238</v>
+        <v>-16987.8861004441</v>
       </c>
       <c r="I340">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -10287,10 +10287,10 @@
         <v>10000</v>
       </c>
       <c r="H341">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I341">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -10316,10 +10316,10 @@
         <v>10000</v>
       </c>
       <c r="H342">
-        <v>-1083007668.417059</v>
+        <v>-2379843319.347195</v>
       </c>
       <c r="I342">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -10345,7 +10345,7 @@
         <v>10000</v>
       </c>
       <c r="H343">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I343">
         <v>181</v>
@@ -10374,10 +10374,10 @@
         <v>10000</v>
       </c>
       <c r="H344">
-        <v>-59860765623778.83</v>
+        <v>-27392075998890.48</v>
       </c>
       <c r="I344">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -10403,7 +10403,7 @@
         <v>10000</v>
       </c>
       <c r="H345">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I345">
         <v>145</v>
@@ -10432,10 +10432,10 @@
         <v>10000</v>
       </c>
       <c r="H346">
-        <v>-328566140033515.2</v>
+        <v>-56101331957840.03</v>
       </c>
       <c r="I346">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -10461,7 +10461,7 @@
         <v>10000</v>
       </c>
       <c r="H347">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I347">
         <v>109</v>
@@ -10490,10 +10490,10 @@
         <v>10000</v>
       </c>
       <c r="H348">
-        <v>-3973994336549878</v>
+        <v>-1.414572796267572E+16</v>
       </c>
       <c r="I348">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -10519,7 +10519,7 @@
         <v>10000</v>
       </c>
       <c r="H349">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I349">
         <v>25</v>
@@ -10548,10 +10548,10 @@
         <v>10000</v>
       </c>
       <c r="H350">
-        <v>-4.106575616289674E+19</v>
+        <v>-4.235842644305355E+17</v>
       </c>
       <c r="I350">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -10577,10 +10577,10 @@
         <v>10000</v>
       </c>
       <c r="H351">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I351">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -10606,10 +10606,10 @@
         <v>10000</v>
       </c>
       <c r="H352">
-        <v>-4.010141821715811E+19</v>
+        <v>-2.573175153698634E+19</v>
       </c>
       <c r="I352">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -10635,7 +10635,7 @@
         <v>10000</v>
       </c>
       <c r="H353">
-        <v>0.857779360739789</v>
+        <v>0.85326127352853</v>
       </c>
       <c r="I353">
         <v>181</v>
@@ -10664,10 +10664,10 @@
         <v>10000</v>
       </c>
       <c r="H354">
-        <v>-2.42264760802865E+24</v>
+        <v>-1.985721509128788E+24</v>
       </c>
       <c r="I354">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -10693,7 +10693,7 @@
         <v>10000</v>
       </c>
       <c r="H355">
-        <v>0.8624318581301298</v>
+        <v>0.8576951017043782</v>
       </c>
       <c r="I355">
         <v>145</v>
@@ -10722,10 +10722,10 @@
         <v>10000</v>
       </c>
       <c r="H356">
-        <v>-3.941036373420024E+25</v>
+        <v>-8.765094175957706E+25</v>
       </c>
       <c r="I356">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -10751,7 +10751,7 @@
         <v>10000</v>
       </c>
       <c r="H357">
-        <v>0.8635867196439643</v>
+        <v>0.8579467490254979</v>
       </c>
       <c r="I357">
         <v>109</v>
@@ -10780,10 +10780,10 @@
         <v>10000</v>
       </c>
       <c r="H358">
-        <v>-1.168318188969998E+30</v>
+        <v>-8.882570449322964E+29</v>
       </c>
       <c r="I358">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -10809,7 +10809,7 @@
         <v>10000</v>
       </c>
       <c r="H359">
-        <v>0.8664834138629102</v>
+        <v>0.8617786580922029</v>
       </c>
       <c r="I359">
         <v>25</v>
@@ -10838,10 +10838,10 @@
         <v>10000</v>
       </c>
       <c r="H360">
-        <v>-5.55656643786014E+31</v>
+        <v>-3.480261804474148E+31</v>
       </c>
       <c r="I360">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -10867,10 +10867,10 @@
         <v>10000</v>
       </c>
       <c r="H361">
-        <v>0.8664474618288855</v>
+        <v>0.862588356056688</v>
       </c>
       <c r="I361">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -10896,10 +10896,10 @@
         <v>10000</v>
       </c>
       <c r="H362">
-        <v>-87.56378786225187</v>
+        <v>-127.9106104749241</v>
       </c>
       <c r="I362">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -10925,10 +10925,10 @@
         <v>10000</v>
       </c>
       <c r="H363">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I363">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -10954,10 +10954,10 @@
         <v>10000</v>
       </c>
       <c r="H364">
-        <v>-11973.50058663476</v>
+        <v>-2405.998857587984</v>
       </c>
       <c r="I364">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -10983,10 +10983,10 @@
         <v>10000</v>
       </c>
       <c r="H365">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I365">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -11012,10 +11012,10 @@
         <v>10000</v>
       </c>
       <c r="H366">
-        <v>-46466.4224433396</v>
+        <v>-9820.890113268159</v>
       </c>
       <c r="I366">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -11041,7 +11041,7 @@
         <v>10000</v>
       </c>
       <c r="H367">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I367">
         <v>73</v>
@@ -11070,10 +11070,10 @@
         <v>10000</v>
       </c>
       <c r="H368">
-        <v>-143314.6722025603</v>
+        <v>-640338.991015973</v>
       </c>
       <c r="I368">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -11099,7 +11099,7 @@
         <v>10000</v>
       </c>
       <c r="H369">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I369">
         <v>61</v>
@@ -11128,10 +11128,10 @@
         <v>10000</v>
       </c>
       <c r="H370">
-        <v>-6307908.163232205</v>
+        <v>-1511257.425048937</v>
       </c>
       <c r="I370">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -11157,10 +11157,10 @@
         <v>10000</v>
       </c>
       <c r="H371">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I371">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -11186,10 +11186,10 @@
         <v>10000</v>
       </c>
       <c r="H372">
-        <v>-2259657283435.368</v>
+        <v>-196441015626.1682</v>
       </c>
       <c r="I372">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -11215,10 +11215,10 @@
         <v>10000</v>
       </c>
       <c r="H373">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I373">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -11244,10 +11244,10 @@
         <v>10000</v>
       </c>
       <c r="H374">
-        <v>-471693351423721.3</v>
+        <v>-8840452540080483</v>
       </c>
       <c r="I374">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -11273,10 +11273,10 @@
         <v>10000</v>
       </c>
       <c r="H375">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I375">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -11302,10 +11302,10 @@
         <v>10000</v>
       </c>
       <c r="H376">
-        <v>-9583330972489346</v>
+        <v>-1.422667997839876E+17</v>
       </c>
       <c r="I376">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -11331,7 +11331,7 @@
         <v>10000</v>
       </c>
       <c r="H377">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I377">
         <v>73</v>
@@ -11360,10 +11360,10 @@
         <v>10000</v>
       </c>
       <c r="H378">
-        <v>-3.412589885489389E+19</v>
+        <v>-3.485964636994482E+19</v>
       </c>
       <c r="I378">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -11389,7 +11389,7 @@
         <v>10000</v>
       </c>
       <c r="H379">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I379">
         <v>61</v>
@@ -11418,10 +11418,10 @@
         <v>10000</v>
       </c>
       <c r="H380">
-        <v>-6.826282060007661E+20</v>
+        <v>-5.035877390186402E+20</v>
       </c>
       <c r="I380">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -11447,10 +11447,10 @@
         <v>10000</v>
       </c>
       <c r="H381">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I381">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -11476,10 +11476,10 @@
         <v>10000</v>
       </c>
       <c r="H382">
-        <v>-6.182028618882906E+20</v>
+        <v>-2.525201289806281E+22</v>
       </c>
       <c r="I382">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -11505,10 +11505,10 @@
         <v>10000</v>
       </c>
       <c r="H383">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I383">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -11534,10 +11534,10 @@
         <v>10000</v>
       </c>
       <c r="H384">
-        <v>-6.434346309876067E+25</v>
+        <v>-6.583364085658394E+24</v>
       </c>
       <c r="I384">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -11563,10 +11563,10 @@
         <v>10000</v>
       </c>
       <c r="H385">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I385">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -11592,10 +11592,10 @@
         <v>10000</v>
       </c>
       <c r="H386">
-        <v>-6.480409434844435E+27</v>
+        <v>-2.198997865165338E+26</v>
       </c>
       <c r="I386">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -11621,7 +11621,7 @@
         <v>10000</v>
       </c>
       <c r="H387">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I387">
         <v>73</v>
@@ -11650,10 +11650,10 @@
         <v>10000</v>
       </c>
       <c r="H388">
-        <v>-1.428666208547697E+31</v>
+        <v>-1.02277594258196E+31</v>
       </c>
       <c r="I388">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -11679,7 +11679,7 @@
         <v>10000</v>
       </c>
       <c r="H389">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I389">
         <v>61</v>
@@ -11708,7 +11708,7 @@
         <v>10000</v>
       </c>
       <c r="H390">
-        <v>-7.941102945134336E+32</v>
+        <v>-5.711890396499455E+32</v>
       </c>
       <c r="I390">
         <v>477</v>
@@ -11737,10 +11737,10 @@
         <v>10000</v>
       </c>
       <c r="H391">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I391">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -11766,10 +11766,10 @@
         <v>10000</v>
       </c>
       <c r="H392">
-        <v>-3047.774921119634</v>
+        <v>-52.6969985065218</v>
       </c>
       <c r="I392">
-        <v>300</v>
+        <v>247</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -11795,10 +11795,10 @@
         <v>10000</v>
       </c>
       <c r="H393">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I393">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -11824,10 +11824,10 @@
         <v>10000</v>
       </c>
       <c r="H394">
-        <v>-2592.143060089673</v>
+        <v>-3827.75720363974</v>
       </c>
       <c r="I394">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -11853,10 +11853,10 @@
         <v>10000</v>
       </c>
       <c r="H395">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I395">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -11882,10 +11882,10 @@
         <v>10000</v>
       </c>
       <c r="H396">
-        <v>-20419.71310353847</v>
+        <v>-9411.796765811181</v>
       </c>
       <c r="I396">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -11911,7 +11911,7 @@
         <v>10000</v>
       </c>
       <c r="H397">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I397">
         <v>73</v>
@@ -11940,10 +11940,10 @@
         <v>10000</v>
       </c>
       <c r="H398">
-        <v>-149730.5510017035</v>
+        <v>-325733.7053734444</v>
       </c>
       <c r="I398">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -11969,7 +11969,7 @@
         <v>10000</v>
       </c>
       <c r="H399">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I399">
         <v>61</v>
@@ -11998,10 +11998,10 @@
         <v>10000</v>
       </c>
       <c r="H400">
-        <v>-9151255.808771003</v>
+        <v>-665628.5508039852</v>
       </c>
       <c r="I400">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -12027,10 +12027,10 @@
         <v>10000</v>
       </c>
       <c r="H401">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I401">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -12056,10 +12056,10 @@
         <v>10000</v>
       </c>
       <c r="H402">
-        <v>-3233732444946.073</v>
+        <v>-534943300947.8625</v>
       </c>
       <c r="I402">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -12085,10 +12085,10 @@
         <v>10000</v>
       </c>
       <c r="H403">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I403">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -12114,7 +12114,7 @@
         <v>10000</v>
       </c>
       <c r="H404">
-        <v>-6661117838746558</v>
+        <v>-8829902942098810</v>
       </c>
       <c r="I404">
         <v>371</v>
@@ -12143,10 +12143,10 @@
         <v>10000</v>
       </c>
       <c r="H405">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I405">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -12172,10 +12172,10 @@
         <v>10000</v>
       </c>
       <c r="H406">
-        <v>-4525237146392572</v>
+        <v>-2984524075112003</v>
       </c>
       <c r="I406">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -12201,7 +12201,7 @@
         <v>10000</v>
       </c>
       <c r="H407">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I407">
         <v>73</v>
@@ -12230,10 +12230,10 @@
         <v>10000</v>
       </c>
       <c r="H408">
-        <v>-2.068974129862677E+18</v>
+        <v>-2.298621022762478E+20</v>
       </c>
       <c r="I408">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -12259,7 +12259,7 @@
         <v>10000</v>
       </c>
       <c r="H409">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I409">
         <v>61</v>
@@ -12288,10 +12288,10 @@
         <v>10000</v>
       </c>
       <c r="H410">
-        <v>-3.614733341770549E+21</v>
+        <v>-3.782515115476002E+20</v>
       </c>
       <c r="I410">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -12317,10 +12317,10 @@
         <v>10000</v>
       </c>
       <c r="H411">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I411">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -12346,10 +12346,10 @@
         <v>10000</v>
       </c>
       <c r="H412">
-        <v>-4.18469373657912E+21</v>
+        <v>-1.892774855675473E+22</v>
       </c>
       <c r="I412">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -12375,10 +12375,10 @@
         <v>10000</v>
       </c>
       <c r="H413">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I413">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -12404,7 +12404,7 @@
         <v>10000</v>
       </c>
       <c r="H414">
-        <v>-1.361756888766294E+26</v>
+        <v>-1.336920766181312E+26</v>
       </c>
       <c r="I414">
         <v>443</v>
@@ -12433,10 +12433,10 @@
         <v>10000</v>
       </c>
       <c r="H415">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I415">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -12462,10 +12462,10 @@
         <v>10000</v>
       </c>
       <c r="H416">
-        <v>-5.846526139950532E+26</v>
+        <v>-1.029690463233983E+27</v>
       </c>
       <c r="I416">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -12491,7 +12491,7 @@
         <v>10000</v>
       </c>
       <c r="H417">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I417">
         <v>73</v>
@@ -12520,10 +12520,10 @@
         <v>10000</v>
       </c>
       <c r="H418">
-        <v>-3.994056413547856E+32</v>
+        <v>-2.106465409231612E+32</v>
       </c>
       <c r="I418">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -12549,7 +12549,7 @@
         <v>10000</v>
       </c>
       <c r="H419">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I419">
         <v>61</v>
@@ -12578,7 +12578,7 @@
         <v>10000</v>
       </c>
       <c r="H420">
-        <v>-6.278742006166254E+33</v>
+        <v>-1.413096036310174E+33</v>
       </c>
       <c r="I420">
         <v>478</v>
@@ -12607,10 +12607,10 @@
         <v>10000</v>
       </c>
       <c r="H421">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I421">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -12636,10 +12636,10 @@
         <v>10000</v>
       </c>
       <c r="H422">
-        <v>-405.6017087559329</v>
+        <v>-852.221835055753</v>
       </c>
       <c r="I422">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -12665,10 +12665,10 @@
         <v>10000</v>
       </c>
       <c r="H423">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I423">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -12694,10 +12694,10 @@
         <v>10000</v>
       </c>
       <c r="H424">
-        <v>-11983.3116445079</v>
+        <v>-3783.248622319235</v>
       </c>
       <c r="I424">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -12723,10 +12723,10 @@
         <v>10000</v>
       </c>
       <c r="H425">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I425">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -12752,10 +12752,10 @@
         <v>10000</v>
       </c>
       <c r="H426">
-        <v>-48855.78755810303</v>
+        <v>-9034.745392807472</v>
       </c>
       <c r="I426">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -12781,7 +12781,7 @@
         <v>10000</v>
       </c>
       <c r="H427">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I427">
         <v>73</v>
@@ -12810,10 +12810,10 @@
         <v>10000</v>
       </c>
       <c r="H428">
-        <v>-647564.5037724486</v>
+        <v>-442914.9130574091</v>
       </c>
       <c r="I428">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -12839,7 +12839,7 @@
         <v>10000</v>
       </c>
       <c r="H429">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I429">
         <v>61</v>
@@ -12868,10 +12868,10 @@
         <v>10000</v>
       </c>
       <c r="H430">
-        <v>-293088.5284969741</v>
+        <v>-1312514.631043887</v>
       </c>
       <c r="I430">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -12897,10 +12897,10 @@
         <v>10000</v>
       </c>
       <c r="H431">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I431">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -12926,10 +12926,10 @@
         <v>10000</v>
       </c>
       <c r="H432">
-        <v>-511687751389.0669</v>
+        <v>-182995159965.5446</v>
       </c>
       <c r="I432">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -12955,10 +12955,10 @@
         <v>10000</v>
       </c>
       <c r="H433">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I433">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -12984,10 +12984,10 @@
         <v>10000</v>
       </c>
       <c r="H434">
-        <v>-1273469068209871</v>
+        <v>-1067049937203495</v>
       </c>
       <c r="I434">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -13013,10 +13013,10 @@
         <v>10000</v>
       </c>
       <c r="H435">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I435">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -13042,10 +13042,10 @@
         <v>10000</v>
       </c>
       <c r="H436">
-        <v>-8275281203724432</v>
+        <v>-1.669247513511566E+17</v>
       </c>
       <c r="I436">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -13071,7 +13071,7 @@
         <v>10000</v>
       </c>
       <c r="H437">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I437">
         <v>73</v>
@@ -13100,10 +13100,10 @@
         <v>10000</v>
       </c>
       <c r="H438">
-        <v>-2.56591217244888E+20</v>
+        <v>-1.249091522641564E+18</v>
       </c>
       <c r="I438">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -13129,7 +13129,7 @@
         <v>10000</v>
       </c>
       <c r="H439">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I439">
         <v>61</v>
@@ -13158,10 +13158,10 @@
         <v>10000</v>
       </c>
       <c r="H440">
-        <v>-6.550565948533624E+19</v>
+        <v>-1.447826812198433E+19</v>
       </c>
       <c r="I440">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -13187,10 +13187,10 @@
         <v>10000</v>
       </c>
       <c r="H441">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I441">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -13216,10 +13216,10 @@
         <v>10000</v>
       </c>
       <c r="H442">
-        <v>-1.528034048453616E+22</v>
+        <v>-9.560962504857693E+21</v>
       </c>
       <c r="I442">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -13245,10 +13245,10 @@
         <v>10000</v>
       </c>
       <c r="H443">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I443">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -13274,10 +13274,10 @@
         <v>10000</v>
       </c>
       <c r="H444">
-        <v>-5.859970012876451E+25</v>
+        <v>-1.633445463811468E+26</v>
       </c>
       <c r="I444">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -13303,10 +13303,10 @@
         <v>10000</v>
       </c>
       <c r="H445">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I445">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -13332,7 +13332,7 @@
         <v>10000</v>
       </c>
       <c r="H446">
-        <v>-5.61601053770513E+27</v>
+        <v>-2.354240800619369E+27</v>
       </c>
       <c r="I446">
         <v>448</v>
@@ -13361,7 +13361,7 @@
         <v>10000</v>
       </c>
       <c r="H447">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I447">
         <v>73</v>
@@ -13390,7 +13390,7 @@
         <v>10000</v>
       </c>
       <c r="H448">
-        <v>-6.11920598996167E+31</v>
+        <v>-5.216431095991416E+31</v>
       </c>
       <c r="I448">
         <v>473</v>
@@ -13419,7 +13419,7 @@
         <v>10000</v>
       </c>
       <c r="H449">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I449">
         <v>61</v>
@@ -13448,10 +13448,10 @@
         <v>10000</v>
       </c>
       <c r="H450">
-        <v>-6.656640975621478E+33</v>
+        <v>-1.922753758289734E+34</v>
       </c>
       <c r="I450">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -13477,10 +13477,10 @@
         <v>10000</v>
       </c>
       <c r="H451">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I451">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -13506,10 +13506,10 @@
         <v>10000</v>
       </c>
       <c r="H452">
-        <v>-904.8187452751743</v>
+        <v>-189.4332148660658</v>
       </c>
       <c r="I452">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="453" spans="1:9">
@@ -13535,10 +13535,10 @@
         <v>10000</v>
       </c>
       <c r="H453">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I453">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="454" spans="1:9">
@@ -13564,10 +13564,10 @@
         <v>10000</v>
       </c>
       <c r="H454">
-        <v>-10545.60665169054</v>
+        <v>-2787.985721316432</v>
       </c>
       <c r="I454">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="455" spans="1:9">
@@ -13593,10 +13593,10 @@
         <v>10000</v>
       </c>
       <c r="H455">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I455">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="456" spans="1:9">
@@ -13622,10 +13622,10 @@
         <v>10000</v>
       </c>
       <c r="H456">
-        <v>-48462.94955021932</v>
+        <v>-10804.23463851135</v>
       </c>
       <c r="I456">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="457" spans="1:9">
@@ -13651,7 +13651,7 @@
         <v>10000</v>
       </c>
       <c r="H457">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I457">
         <v>73</v>
@@ -13680,10 +13680,10 @@
         <v>10000</v>
       </c>
       <c r="H458">
-        <v>-191368.1927405978</v>
+        <v>-438604.0232485125</v>
       </c>
       <c r="I458">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -13709,7 +13709,7 @@
         <v>10000</v>
       </c>
       <c r="H459">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I459">
         <v>61</v>
@@ -13738,10 +13738,10 @@
         <v>10000</v>
       </c>
       <c r="H460">
-        <v>-6411917.83821689</v>
+        <v>-1511257.986027553</v>
       </c>
       <c r="I460">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -13767,10 +13767,10 @@
         <v>10000</v>
       </c>
       <c r="H461">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I461">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -13796,10 +13796,10 @@
         <v>10000</v>
       </c>
       <c r="H462">
-        <v>-129389452515.5829</v>
+        <v>-57220459378.44338</v>
       </c>
       <c r="I462">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -13825,10 +13825,10 @@
         <v>10000</v>
       </c>
       <c r="H463">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I463">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -13854,10 +13854,10 @@
         <v>10000</v>
       </c>
       <c r="H464">
-        <v>-1158278964794821</v>
+        <v>-353981929415910.8</v>
       </c>
       <c r="I464">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="465" spans="1:9">
@@ -13883,10 +13883,10 @@
         <v>10000</v>
       </c>
       <c r="H465">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I465">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -13912,10 +13912,10 @@
         <v>10000</v>
       </c>
       <c r="H466">
-        <v>-2.580550924125858E+16</v>
+        <v>-2.238266035171239E+16</v>
       </c>
       <c r="I466">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -13941,7 +13941,7 @@
         <v>10000</v>
       </c>
       <c r="H467">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I467">
         <v>73</v>
@@ -13970,10 +13970,10 @@
         <v>10000</v>
       </c>
       <c r="H468">
-        <v>-1.965904792874834E+17</v>
+        <v>-1.296937745485375E+18</v>
       </c>
       <c r="I468">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -13999,7 +13999,7 @@
         <v>10000</v>
       </c>
       <c r="H469">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I469">
         <v>61</v>
@@ -14028,10 +14028,10 @@
         <v>10000</v>
       </c>
       <c r="H470">
-        <v>-4.109027594155968E+21</v>
+        <v>-3.482216901658028E+19</v>
       </c>
       <c r="I470">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -14057,10 +14057,10 @@
         <v>10000</v>
       </c>
       <c r="H471">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I471">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="472" spans="1:9">
@@ -14086,7 +14086,7 @@
         <v>10000</v>
       </c>
       <c r="H472">
-        <v>-9.833589350097762E+20</v>
+        <v>-2.113742196125383E+21</v>
       </c>
       <c r="I472">
         <v>414</v>
@@ -14115,10 +14115,10 @@
         <v>10000</v>
       </c>
       <c r="H473">
-        <v>0.8624552012983683</v>
+        <v>0.8569944743329184</v>
       </c>
       <c r="I473">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -14144,10 +14144,10 @@
         <v>10000</v>
       </c>
       <c r="H474">
-        <v>-7.945008891308785E+25</v>
+        <v>-1.515646388509734E+25</v>
       </c>
       <c r="I474">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -14173,10 +14173,10 @@
         <v>10000</v>
       </c>
       <c r="H475">
-        <v>0.8637843886700404</v>
+        <v>0.8578596231911344</v>
       </c>
       <c r="I475">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -14202,10 +14202,10 @@
         <v>10000</v>
       </c>
       <c r="H476">
-        <v>-1.405338950382254E+27</v>
+        <v>-1.675378014662986E+28</v>
       </c>
       <c r="I476">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="477" spans="1:9">
@@ -14231,7 +14231,7 @@
         <v>10000</v>
       </c>
       <c r="H477">
-        <v>0.865180207005913</v>
+        <v>0.859855223910414</v>
       </c>
       <c r="I477">
         <v>73</v>
@@ -14260,10 +14260,10 @@
         <v>10000</v>
       </c>
       <c r="H478">
-        <v>-6.68258231331383E+31</v>
+        <v>-2.170057565727196E+32</v>
       </c>
       <c r="I478">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="479" spans="1:9">
@@ -14289,7 +14289,7 @@
         <v>10000</v>
       </c>
       <c r="H479">
-        <v>0.8652031661690603</v>
+        <v>0.8609820856399006</v>
       </c>
       <c r="I479">
         <v>61</v>
@@ -14318,10 +14318,10 @@
         <v>10000</v>
       </c>
       <c r="H480">
-        <v>-8.465139676047471E+33</v>
+        <v>-2.703059196010062E+33</v>
       </c>
       <c r="I480">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:9">
@@ -14347,10 +14347,10 @@
         <v>10000</v>
       </c>
       <c r="H481">
-        <v>0.8607581976760741</v>
+        <v>0.8577234667398793</v>
       </c>
       <c r="I481">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
